--- a/medicine/Psychotrope/Tartrate/Tartrate.xlsx
+++ b/medicine/Psychotrope/Tartrate/Tartrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dianion tartrate est l'ion de formule brute C4H4O62− et semi-développée −OOC-(CHOH)2-COO−. C'est la base conjuguée de l'acide tartrique, un acide dicarboxylique : l'acide 2,3-dihydroxybutanedioïque, ou acide 2,3-dihydroxy succinique. On appelle aussi tartrate un sel ou un ester de l'acide tartrique. Le sel le plus commun est le (2R,3R)-bitartrate de potassium, un énantiomère présent dans le raisin et le vin[1].
-En 1848, Louis Pasteur a découvert la résolution chirale dans la cristallisation du tartrate double de sodium et d'ammonium tétrahydraté racémique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dianion tartrate est l'ion de formule brute C4H4O62− et semi-développée −OOC-(CHOH)2-COO−. C'est la base conjuguée de l'acide tartrique, un acide dicarboxylique : l'acide 2,3-dihydroxybutanedioïque, ou acide 2,3-dihydroxy succinique. On appelle aussi tartrate un sel ou un ester de l'acide tartrique. Le sel le plus commun est le (2R,3R)-bitartrate de potassium, un énantiomère présent dans le raisin et le vin.
+En 1848, Louis Pasteur a découvert la résolution chirale dans la cristallisation du tartrate double de sodium et d'ammonium tétrahydraté racémique.
 Les sels paratartrates (rac-tartrates, racémates) sont les sels de l'acide tartrique racémique.
 Les ions tartrates sont utilisés dans la liqueur de Fehling pour tester la présence d'aldéhydes.
 </t>
@@ -514,9 +526,11 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Additifs alimentaires[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Additifs alimentaires
 tartrates de sodium, E335 :
 tartrate de monosodium, E335(i) ;
 tartrate de disodium, E335(ii) ;
